--- a/2020AAnswers.xlsx
+++ b/2020AAnswers.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t xml:space="preserve">Round_1 </t>
   </si>
@@ -706,7 +706,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,13 +1125,15 @@
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C20">
         <v>16</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="10" t="str">
         <f>B20</f>
-        <v>0</v>
+        <v>Pygmy Spotted Skunk</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>78</v>

--- a/2020AAnswers.xlsx
+++ b/2020AAnswers.xlsx
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,8 +1104,8 @@
       <c r="D19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>78</v>
+      <c r="E19" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>78</v>
@@ -1156,8 +1156,8 @@
       <c r="D21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>78</v>
+      <c r="E21" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>78</v>
@@ -1196,8 +1196,8 @@
       <c r="D23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>78</v>
+      <c r="E23" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>78</v>
@@ -1236,8 +1236,8 @@
       <c r="D25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>78</v>
+      <c r="E25" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>78</v>
@@ -1276,8 +1276,8 @@
       <c r="D27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>78</v>
+      <c r="E27" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>78</v>
@@ -1316,8 +1316,8 @@
       <c r="D29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>78</v>
+      <c r="E29" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>78</v>
@@ -1356,8 +1356,8 @@
       <c r="D31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>78</v>
+      <c r="E31" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>78</v>
@@ -1396,8 +1396,8 @@
       <c r="D33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>78</v>
+      <c r="E33" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>78</v>

--- a/2020AAnswers.xlsx
+++ b/2020AAnswers.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PhD\MMM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessic/Uni_Work/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="14070"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15340" windowHeight="14080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -272,7 +278,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -705,24 +711,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="47.140625" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="18.5" customWidth="1"/>
+    <col min="16" max="16" width="47.1640625" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="19" max="19" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:17" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -766,15 +772,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="19" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>78</v>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>78</v>
@@ -786,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="19" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>16</v>
       </c>
@@ -806,15 +812,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="19" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>78</v>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>78</v>
@@ -826,7 +832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" ht="19" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>9</v>
       </c>
@@ -846,15 +852,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="19" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>78</v>
+      <c r="E6" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>78</v>
@@ -866,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="19" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>12</v>
       </c>
@@ -886,15 +892,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="19" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>78</v>
+      <c r="E8" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>78</v>
@@ -906,7 +912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="19" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>13</v>
       </c>
@@ -926,15 +932,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="19" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>78</v>
+      <c r="E10" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>78</v>
@@ -946,7 +952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" ht="19" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>11</v>
       </c>
@@ -966,15 +972,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="19" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>78</v>
+      <c r="E12" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>78</v>
@@ -986,7 +992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="19" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>14</v>
       </c>
@@ -1006,15 +1012,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="19" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>7</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>78</v>
+      <c r="E14" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>78</v>
@@ -1026,7 +1032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="19" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>10</v>
       </c>
@@ -1046,15 +1052,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="19" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>78</v>
+      <c r="E16" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>78</v>
@@ -1066,7 +1072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>15</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.3">
       <c r="C18" s="15" t="s">
         <v>9</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1121,7 +1127,7 @@
       </c>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1149,7 +1155,7 @@
       </c>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>8</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>9</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>5</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>12</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>4</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>13</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>6</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>11</v>
       </c>
@@ -1309,7 +1315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>3</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>14</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>7</v>
       </c>
@@ -1369,7 +1375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>10</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:17" ht="19" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>2</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:17" ht="19" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>15</v>
       </c>

--- a/2020AAnswers.xlsx
+++ b/2020AAnswers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15340" windowHeight="14080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15340" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="K15" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1117,7 +1117,7 @@
         <v>78</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="P19" s="10" t="s">
         <v>61</v>
@@ -1165,8 +1165,8 @@
       <c r="E21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>78</v>
+      <c r="O21" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="P21" s="10" t="s">
         <v>63</v>
@@ -1205,8 +1205,8 @@
       <c r="E23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>78</v>
+      <c r="O23" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="P23" s="10" t="s">
         <v>65</v>
@@ -1245,8 +1245,8 @@
       <c r="E25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>78</v>
+      <c r="O25" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>67</v>
@@ -1275,7 +1275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="38" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>6</v>
       </c>
@@ -1285,8 +1285,8 @@
       <c r="E27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O27" s="2" t="s">
-        <v>78</v>
+      <c r="O27" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="P27" s="10" t="s">
         <v>77</v>
@@ -1325,8 +1325,8 @@
       <c r="E29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>78</v>
+      <c r="O29" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="P29" s="10" t="s">
         <v>75</v>
@@ -1365,8 +1365,8 @@
       <c r="E31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>78</v>
+      <c r="O31" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="P31" s="10" t="s">
         <v>70</v>
@@ -1405,8 +1405,8 @@
       <c r="E33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O33" s="2" t="s">
-        <v>78</v>
+      <c r="O33" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="P33" s="10" t="s">
         <v>73</v>

--- a/2020AAnswers.xlsx
+++ b/2020AAnswers.xlsx
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K15" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -782,8 +782,8 @@
       <c r="E2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>78</v>
+      <c r="O2" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>45</v>
@@ -799,8 +799,8 @@
       <c r="D3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>78</v>
+      <c r="F3" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>78</v>
@@ -822,8 +822,8 @@
       <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>78</v>
+      <c r="O4" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="P4" s="10" t="s">
         <v>47</v>
@@ -862,8 +862,8 @@
       <c r="E6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>78</v>
+      <c r="O6" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="P6" s="10" t="s">
         <v>49</v>
@@ -879,8 +879,8 @@
       <c r="D7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>78</v>
+      <c r="F7" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>78</v>
@@ -902,8 +902,8 @@
       <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>78</v>
+      <c r="O8" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="P8" s="10" t="s">
         <v>51</v>
@@ -942,8 +942,8 @@
       <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>78</v>
+      <c r="O10" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>53</v>
@@ -959,8 +959,8 @@
       <c r="D11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>78</v>
+      <c r="F11" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>78</v>
@@ -972,7 +972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" ht="38" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>3</v>
       </c>
@@ -982,8 +982,8 @@
       <c r="E12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>78</v>
+      <c r="O12" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>55</v>
@@ -1022,8 +1022,8 @@
       <c r="E14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>78</v>
+      <c r="O14" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="P14" s="10" t="s">
         <v>57</v>
@@ -1039,8 +1039,8 @@
       <c r="D15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>78</v>
+      <c r="F15" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>78</v>
@@ -1062,8 +1062,8 @@
       <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>78</v>
+      <c r="O16" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>59</v>
@@ -1141,8 +1141,8 @@
         <f>B20</f>
         <v>Pygmy Spotted Skunk</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>78</v>
+      <c r="F20" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>78</v>
@@ -1222,8 +1222,8 @@
       <c r="D24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>78</v>
+      <c r="F24" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>78</v>
@@ -1302,8 +1302,8 @@
       <c r="D28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>78</v>
+      <c r="F28" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>78</v>
@@ -1382,8 +1382,8 @@
       <c r="D32" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>78</v>
+      <c r="F32" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>78</v>

--- a/2020AAnswers.xlsx
+++ b/2020AAnswers.xlsx
@@ -335,7 +335,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,12 +351,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8585"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF964F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,19 +391,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -711,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -720,7 +713,7 @@
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
     <col min="6" max="15" width="18.5" customWidth="1"/>
     <col min="16" max="16" width="47.1640625" customWidth="1"/>
@@ -732,7 +725,7 @@
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
@@ -768,7 +761,7 @@
       <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -776,16 +769,16 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q2">
@@ -796,16 +789,16 @@
       <c r="C3">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" s="10" t="s">
+      <c r="N3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>46</v>
       </c>
       <c r="Q3">
@@ -816,16 +809,16 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="9" t="s">
         <v>47</v>
       </c>
       <c r="Q4">
@@ -836,16 +829,16 @@
       <c r="C5">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="Q5">
@@ -856,16 +849,16 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="9" t="s">
         <v>49</v>
       </c>
       <c r="Q6">
@@ -876,16 +869,16 @@
       <c r="C7">
         <v>12</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="10" t="s">
+      <c r="N7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>50</v>
       </c>
       <c r="Q7">
@@ -896,16 +889,16 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="9" t="s">
         <v>51</v>
       </c>
       <c r="Q8">
@@ -916,16 +909,16 @@
       <c r="C9">
         <v>13</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="9" t="s">
         <v>52</v>
       </c>
       <c r="Q9">
@@ -936,36 +929,36 @@
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="9" t="s">
         <v>53</v>
       </c>
       <c r="Q10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="38" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P11" s="10" t="s">
+      <c r="N11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="9" t="s">
         <v>54</v>
       </c>
       <c r="Q11">
@@ -976,16 +969,16 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="9" t="s">
         <v>55</v>
       </c>
       <c r="Q12">
@@ -996,16 +989,16 @@
       <c r="C13">
         <v>14</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P13" s="9" t="s">
         <v>56</v>
       </c>
       <c r="Q13">
@@ -1016,16 +1009,16 @@
       <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="9" t="s">
         <v>57</v>
       </c>
       <c r="Q14">
@@ -1036,16 +1029,16 @@
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P15" s="10" t="s">
+      <c r="N15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="9" t="s">
         <v>58</v>
       </c>
       <c r="Q15">
@@ -1056,16 +1049,16 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="9" t="s">
         <v>59</v>
       </c>
       <c r="Q16">
@@ -1076,10 +1069,10 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="9" t="s">
         <v>60</v>
       </c>
       <c r="Q17">
@@ -1087,7 +1080,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1096,7 +1089,7 @@
       <c r="K18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P18" s="16" t="s">
+      <c r="P18" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1107,68 +1100,68 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>78</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="9" t="s">
         <v>61</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
-      <c r="S19" s="8"/>
+      <c r="S19" s="7"/>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
-      <c r="D20" s="10" t="str">
+      <c r="D20" s="9" t="str">
         <f>B20</f>
         <v>Pygmy Spotted Skunk</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P20" s="11" t="s">
+      <c r="N20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="10" t="s">
         <v>62</v>
       </c>
       <c r="Q20">
         <v>16</v>
       </c>
-      <c r="S20" s="8"/>
+      <c r="S20" s="7"/>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>8</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="9" t="s">
         <v>63</v>
       </c>
       <c r="Q21">
@@ -1179,16 +1172,16 @@
       <c r="C22">
         <v>9</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="P22" s="9" t="s">
         <v>64</v>
       </c>
       <c r="Q22">
@@ -1199,16 +1192,16 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="10" t="s">
+      <c r="O23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="P23" s="10" t="s">
+      <c r="P23" s="9" t="s">
         <v>65</v>
       </c>
       <c r="Q23">
@@ -1219,16 +1212,16 @@
       <c r="C24">
         <v>12</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P24" s="10" t="s">
+      <c r="N24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" s="9" t="s">
         <v>66</v>
       </c>
       <c r="Q24">
@@ -1239,16 +1232,16 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="10" t="s">
+      <c r="O25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="P25" s="10" t="s">
+      <c r="P25" s="9" t="s">
         <v>67</v>
       </c>
       <c r="Q25">
@@ -1259,16 +1252,16 @@
       <c r="C26">
         <v>13</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P26" s="10" t="s">
+      <c r="P26" s="9" t="s">
         <v>68</v>
       </c>
       <c r="Q26">
@@ -1279,36 +1272,36 @@
       <c r="C27">
         <v>6</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="O27" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="P27" s="9" t="s">
         <v>77</v>
       </c>
       <c r="Q27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="38" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>11</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P28" s="10" t="s">
+      <c r="N28" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" s="9" t="s">
         <v>72</v>
       </c>
       <c r="Q28">
@@ -1319,16 +1312,16 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="O29" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="P29" s="9" t="s">
         <v>75</v>
       </c>
       <c r="Q29">
@@ -1339,16 +1332,16 @@
       <c r="C30">
         <v>14</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P30" s="10" t="s">
+      <c r="P30" s="9" t="s">
         <v>69</v>
       </c>
       <c r="Q30">
@@ -1359,16 +1352,16 @@
       <c r="C31">
         <v>7</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="10" t="s">
+      <c r="O31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="P31" s="10" t="s">
+      <c r="P31" s="9" t="s">
         <v>70</v>
       </c>
       <c r="Q31">
@@ -1379,16 +1372,16 @@
       <c r="C32">
         <v>10</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P32" s="10" t="s">
+      <c r="N32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" s="9" t="s">
         <v>71</v>
       </c>
       <c r="Q32">
@@ -1399,16 +1392,16 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O33" s="10" t="s">
+      <c r="O33" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="P33" s="10" t="s">
+      <c r="P33" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Q33">
@@ -1419,10 +1412,10 @@
       <c r="C34">
         <v>15</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P34" s="10" t="s">
+      <c r="P34" s="9" t="s">
         <v>74</v>
       </c>
       <c r="Q34">

--- a/2020AAnswers.xlsx
+++ b/2020AAnswers.xlsx
@@ -335,7 +335,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,12 +351,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8585"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,18 +385,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -704,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -713,7 +706,7 @@
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
     <col min="6" max="15" width="18.5" customWidth="1"/>
     <col min="16" max="16" width="47.1640625" customWidth="1"/>
@@ -725,7 +718,7 @@
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
@@ -761,7 +754,7 @@
       <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -769,16 +762,16 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="Q2">
@@ -789,16 +782,16 @@
       <c r="C3">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>46</v>
       </c>
       <c r="Q3">
@@ -809,16 +802,16 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>47</v>
       </c>
       <c r="Q4">
@@ -829,16 +822,16 @@
       <c r="C5">
         <v>9</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" s="9" t="s">
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>48</v>
       </c>
       <c r="Q5">
@@ -849,16 +842,16 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="Q6">
@@ -869,16 +862,16 @@
       <c r="C7">
         <v>12</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>50</v>
       </c>
       <c r="Q7">
@@ -889,16 +882,16 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="8" t="s">
         <v>51</v>
       </c>
       <c r="Q8">
@@ -909,16 +902,16 @@
       <c r="C9">
         <v>13</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="8" t="s">
         <v>52</v>
       </c>
       <c r="Q9">
@@ -929,16 +922,16 @@
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="8" t="s">
         <v>53</v>
       </c>
       <c r="Q10">
@@ -949,16 +942,16 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="8" t="s">
         <v>54</v>
       </c>
       <c r="Q11">
@@ -969,36 +962,36 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="8" t="s">
         <v>55</v>
       </c>
       <c r="Q12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="38" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>14</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P13" s="9" t="s">
+      <c r="G13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="Q13">
@@ -1009,16 +1002,16 @@
       <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="8" t="s">
         <v>57</v>
       </c>
       <c r="Q14">
@@ -1029,16 +1022,16 @@
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="8" t="s">
         <v>58</v>
       </c>
       <c r="Q15">
@@ -1049,16 +1042,16 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="8" t="s">
         <v>59</v>
       </c>
       <c r="Q16">
@@ -1069,10 +1062,10 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="8" t="s">
         <v>60</v>
       </c>
       <c r="Q17">
@@ -1080,7 +1073,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1089,7 +1082,7 @@
       <c r="K18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P18" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1100,68 +1093,68 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>78</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="8" t="s">
         <v>61</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
-      <c r="S19" s="7"/>
+      <c r="S19" s="6"/>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
-      <c r="D20" s="9" t="str">
+      <c r="D20" s="8" t="str">
         <f>B20</f>
         <v>Pygmy Spotted Skunk</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P20" s="9" t="s">
         <v>62</v>
       </c>
       <c r="Q20">
         <v>16</v>
       </c>
-      <c r="S20" s="7"/>
+      <c r="S20" s="6"/>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>8</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="8" t="s">
         <v>63</v>
       </c>
       <c r="Q21">
@@ -1172,16 +1165,16 @@
       <c r="C22">
         <v>9</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P22" s="9" t="s">
+      <c r="G22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="8" t="s">
         <v>64</v>
       </c>
       <c r="Q22">
@@ -1192,16 +1185,16 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="O23" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="P23" s="8" t="s">
         <v>65</v>
       </c>
       <c r="Q23">
@@ -1212,16 +1205,16 @@
       <c r="C24">
         <v>12</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N24" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P24" s="9" t="s">
+      <c r="P24" s="8" t="s">
         <v>66</v>
       </c>
       <c r="Q24">
@@ -1232,16 +1225,16 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="O25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="P25" s="8" t="s">
         <v>67</v>
       </c>
       <c r="Q25">
@@ -1252,16 +1245,16 @@
       <c r="C26">
         <v>13</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="P26" s="8" t="s">
         <v>68</v>
       </c>
       <c r="Q26">
@@ -1272,16 +1265,16 @@
       <c r="C27">
         <v>6</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O27" s="9" t="s">
+      <c r="O27" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="9" t="s">
+      <c r="P27" s="8" t="s">
         <v>77</v>
       </c>
       <c r="Q27">
@@ -1292,16 +1285,16 @@
       <c r="C28">
         <v>11</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="P28" s="8" t="s">
         <v>72</v>
       </c>
       <c r="Q28">
@@ -1312,16 +1305,16 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="O29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P29" s="9" t="s">
+      <c r="P29" s="8" t="s">
         <v>75</v>
       </c>
       <c r="Q29">
@@ -1332,16 +1325,16 @@
       <c r="C30">
         <v>14</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P30" s="9" t="s">
+      <c r="G30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="8" t="s">
         <v>69</v>
       </c>
       <c r="Q30">
@@ -1352,16 +1345,16 @@
       <c r="C31">
         <v>7</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="9" t="s">
+      <c r="O31" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="P31" s="9" t="s">
+      <c r="P31" s="8" t="s">
         <v>70</v>
       </c>
       <c r="Q31">
@@ -1372,16 +1365,16 @@
       <c r="C32">
         <v>10</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N32" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="P32" s="9" t="s">
+      <c r="P32" s="8" t="s">
         <v>71</v>
       </c>
       <c r="Q32">
@@ -1392,16 +1385,16 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="O33" s="9" t="s">
+      <c r="O33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="P33" s="9" t="s">
+      <c r="P33" s="8" t="s">
         <v>73</v>
       </c>
       <c r="Q33">
@@ -1412,10 +1405,10 @@
       <c r="C34">
         <v>15</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P34" s="9" t="s">
+      <c r="P34" s="8" t="s">
         <v>74</v>
       </c>
       <c r="Q34">

--- a/2020AAnswers.xlsx
+++ b/2020AAnswers.xlsx
@@ -335,7 +335,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,12 +351,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8585"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,17 +379,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -697,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -706,7 +699,7 @@
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
     <col min="6" max="15" width="18.5" customWidth="1"/>
     <col min="16" max="16" width="47.1640625" customWidth="1"/>
@@ -718,7 +711,7 @@
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
@@ -754,7 +747,7 @@
       <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -762,16 +755,16 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q2">
@@ -782,16 +775,16 @@
       <c r="C3">
         <v>16</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q3">
@@ -802,16 +795,16 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q4">
@@ -822,16 +815,16 @@
       <c r="C5">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q5">
@@ -842,16 +835,16 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q6">
@@ -862,16 +855,16 @@
       <c r="C7">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q7">
@@ -882,16 +875,16 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Q8">
@@ -902,16 +895,16 @@
       <c r="C9">
         <v>13</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" s="8" t="s">
+      <c r="H9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q9">
@@ -922,16 +915,16 @@
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q10">
@@ -942,16 +935,16 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q11">
@@ -962,16 +955,16 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q12">
@@ -982,16 +975,16 @@
       <c r="C13">
         <v>14</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q13">
@@ -1002,16 +995,16 @@
       <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q14">
@@ -1022,16 +1015,16 @@
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Q15">
@@ -1042,16 +1035,16 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="7" t="s">
         <v>59</v>
       </c>
       <c r="Q16">
@@ -1062,10 +1055,10 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q17">
@@ -1073,7 +1066,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1082,7 +1075,7 @@
       <c r="K18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1093,68 +1086,68 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>78</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
-      <c r="S19" s="6"/>
+      <c r="S19" s="5"/>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
-      <c r="D20" s="8" t="str">
+      <c r="D20" s="7" t="str">
         <f>B20</f>
         <v>Pygmy Spotted Skunk</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="8" t="s">
         <v>62</v>
       </c>
       <c r="Q20">
         <v>16</v>
       </c>
-      <c r="S20" s="6"/>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>8</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P21" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q21">
@@ -1165,16 +1158,16 @@
       <c r="C22">
         <v>9</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="P22" s="7" t="s">
         <v>64</v>
       </c>
       <c r="Q22">
@@ -1185,16 +1178,16 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P23" s="8" t="s">
+      <c r="P23" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q23">
@@ -1205,16 +1198,16 @@
       <c r="C24">
         <v>12</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P24" s="8" t="s">
+      <c r="P24" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q24">
@@ -1225,16 +1218,16 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="O25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="P25" s="7" t="s">
         <v>67</v>
       </c>
       <c r="Q25">
@@ -1245,16 +1238,16 @@
       <c r="C26">
         <v>13</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P26" s="8" t="s">
+      <c r="H26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>68</v>
       </c>
       <c r="Q26">
@@ -1265,16 +1258,16 @@
       <c r="C27">
         <v>6</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O27" s="8" t="s">
+      <c r="O27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="8" t="s">
+      <c r="P27" s="7" t="s">
         <v>77</v>
       </c>
       <c r="Q27">
@@ -1285,16 +1278,16 @@
       <c r="C28">
         <v>11</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="N28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P28" s="8" t="s">
+      <c r="P28" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Q28">
@@ -1305,16 +1298,16 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O29" s="8" t="s">
+      <c r="O29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P29" s="8" t="s">
+      <c r="P29" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q29">
@@ -1325,16 +1318,16 @@
       <c r="C30">
         <v>14</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P30" s="8" t="s">
+      <c r="P30" s="7" t="s">
         <v>69</v>
       </c>
       <c r="Q30">
@@ -1345,16 +1338,16 @@
       <c r="C31">
         <v>7</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="8" t="s">
+      <c r="O31" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="P31" s="7" t="s">
         <v>70</v>
       </c>
       <c r="Q31">
@@ -1365,16 +1358,16 @@
       <c r="C32">
         <v>10</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N32" s="8" t="s">
+      <c r="N32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="P32" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Q32">
@@ -1385,16 +1378,16 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="O33" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P33" s="8" t="s">
+      <c r="P33" s="7" t="s">
         <v>73</v>
       </c>
       <c r="Q33">
@@ -1405,10 +1398,10 @@
       <c r="C34">
         <v>15</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P34" s="8" t="s">
+      <c r="P34" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q34">

--- a/2020AAnswers.xlsx
+++ b/2020AAnswers.xlsx
@@ -335,18 +335,12 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -379,16 +373,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -690,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -699,7 +692,7 @@
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
     <col min="6" max="15" width="18.5" customWidth="1"/>
     <col min="16" max="16" width="47.1640625" customWidth="1"/>
@@ -711,7 +704,7 @@
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
@@ -747,7 +740,7 @@
       <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -755,16 +748,16 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>45</v>
       </c>
       <c r="Q2">
@@ -775,16 +768,16 @@
       <c r="C3">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>46</v>
       </c>
       <c r="Q3">
@@ -795,16 +788,16 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Q4">
@@ -815,16 +808,16 @@
       <c r="C5">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>48</v>
       </c>
       <c r="Q5">
@@ -835,16 +828,16 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="6" t="s">
         <v>49</v>
       </c>
       <c r="Q6">
@@ -855,16 +848,16 @@
       <c r="C7">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>50</v>
       </c>
       <c r="Q7">
@@ -875,16 +868,16 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="6" t="s">
         <v>51</v>
       </c>
       <c r="Q8">
@@ -895,16 +888,16 @@
       <c r="C9">
         <v>13</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="6" t="s">
         <v>52</v>
       </c>
       <c r="Q9">
@@ -915,16 +908,16 @@
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q10">
@@ -935,16 +928,16 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="6" t="s">
         <v>54</v>
       </c>
       <c r="Q11">
@@ -955,16 +948,16 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="6" t="s">
         <v>55</v>
       </c>
       <c r="Q12">
@@ -975,16 +968,16 @@
       <c r="C13">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Q13">
@@ -995,16 +988,16 @@
       <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="6" t="s">
         <v>57</v>
       </c>
       <c r="Q14">
@@ -1015,16 +1008,16 @@
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="6" t="s">
         <v>58</v>
       </c>
       <c r="Q15">
@@ -1035,16 +1028,16 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" s="6" t="s">
         <v>59</v>
       </c>
       <c r="Q16">
@@ -1055,10 +1048,10 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="6" t="s">
         <v>60</v>
       </c>
       <c r="Q17">
@@ -1066,16 +1059,16 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P18" s="13" t="s">
+      <c r="I18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1086,68 +1079,68 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
-      <c r="S19" s="5"/>
+      <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
-      <c r="D20" s="7" t="str">
+      <c r="D20" s="6" t="str">
         <f>B20</f>
         <v>Pygmy Spotted Skunk</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P20" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q20">
         <v>16</v>
       </c>
-      <c r="S20" s="5"/>
+      <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>8</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q21">
@@ -1158,16 +1151,16 @@
       <c r="C22">
         <v>9</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="6" t="s">
         <v>64</v>
       </c>
       <c r="Q22">
@@ -1178,16 +1171,16 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="6" t="s">
         <v>65</v>
       </c>
       <c r="Q23">
@@ -1198,16 +1191,16 @@
       <c r="C24">
         <v>12</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="P24" s="6" t="s">
         <v>66</v>
       </c>
       <c r="Q24">
@@ -1218,16 +1211,16 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25" s="6" t="s">
         <v>67</v>
       </c>
       <c r="Q25">
@@ -1238,16 +1231,16 @@
       <c r="C26">
         <v>13</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P26" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Q26">
@@ -1258,16 +1251,16 @@
       <c r="C27">
         <v>6</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="P27" s="6" t="s">
         <v>77</v>
       </c>
       <c r="Q27">
@@ -1278,16 +1271,16 @@
       <c r="C28">
         <v>11</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="P28" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q28">
@@ -1298,16 +1291,16 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="O29" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="P29" s="6" t="s">
         <v>75</v>
       </c>
       <c r="Q29">
@@ -1318,16 +1311,16 @@
       <c r="C30">
         <v>14</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="P30" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q30">
@@ -1338,16 +1331,16 @@
       <c r="C31">
         <v>7</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="O31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="P31" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q31">
@@ -1358,16 +1351,16 @@
       <c r="C32">
         <v>10</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="P32" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q32">
@@ -1378,16 +1371,16 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="O33" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="P33" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q33">
@@ -1398,10 +1391,10 @@
       <c r="C34">
         <v>15</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="P34" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q34">

--- a/2020AAnswers.xlsx
+++ b/2020AAnswers.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
   <si>
     <t xml:space="preserve">Round_1 </t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>Common Cuttlefish</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -335,7 +332,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,12 +342,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8585"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC69FFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,15 +364,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -684,7 +674,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -692,7 +682,7 @@
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
     <col min="6" max="15" width="18.5" customWidth="1"/>
     <col min="16" max="16" width="47.1640625" customWidth="1"/>
@@ -704,7 +694,7 @@
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
@@ -740,7 +730,7 @@
       <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -748,16 +738,16 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q2">
@@ -768,16 +758,16 @@
       <c r="C3">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Q3">
@@ -788,16 +778,16 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="5" t="s">
         <v>47</v>
       </c>
       <c r="Q4">
@@ -808,16 +798,16 @@
       <c r="C5">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="5" t="s">
         <v>48</v>
       </c>
       <c r="Q5">
@@ -828,16 +818,16 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>49</v>
       </c>
       <c r="Q6">
@@ -848,16 +838,16 @@
       <c r="C7">
         <v>12</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="5" t="s">
         <v>50</v>
       </c>
       <c r="Q7">
@@ -868,16 +858,16 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="Q8">
@@ -888,16 +878,16 @@
       <c r="C9">
         <v>13</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="5" t="s">
         <v>52</v>
       </c>
       <c r="Q9">
@@ -908,16 +898,16 @@
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="5" t="s">
         <v>53</v>
       </c>
       <c r="Q10">
@@ -928,16 +918,16 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="5" t="s">
         <v>54</v>
       </c>
       <c r="Q11">
@@ -948,16 +938,16 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="5" t="s">
         <v>55</v>
       </c>
       <c r="Q12">
@@ -968,16 +958,16 @@
       <c r="C13">
         <v>14</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P13" s="5" t="s">
         <v>56</v>
       </c>
       <c r="Q13">
@@ -988,16 +978,16 @@
       <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="5" t="s">
         <v>57</v>
       </c>
       <c r="Q14">
@@ -1008,16 +998,16 @@
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="5" t="s">
         <v>58</v>
       </c>
       <c r="Q15">
@@ -1028,16 +1018,16 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="P16" s="5" t="s">
         <v>59</v>
       </c>
       <c r="Q16">
@@ -1048,10 +1038,10 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="5" t="s">
         <v>60</v>
       </c>
       <c r="Q17">
@@ -1059,16 +1049,16 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1079,68 +1069,68 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>78</v>
+      <c r="J19" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="P19" s="5" t="s">
         <v>61</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
-      <c r="S19" s="4"/>
+      <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
-      <c r="D20" s="6" t="str">
+      <c r="D20" s="5" t="str">
         <f>B20</f>
         <v>Pygmy Spotted Skunk</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>30</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q20">
         <v>16</v>
       </c>
-      <c r="S20" s="4"/>
+      <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>8</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="5" t="s">
         <v>63</v>
       </c>
       <c r="Q21">
@@ -1151,16 +1141,16 @@
       <c r="C22">
         <v>9</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P22" s="5" t="s">
         <v>64</v>
       </c>
       <c r="Q22">
@@ -1171,16 +1161,16 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P23" s="5" t="s">
         <v>65</v>
       </c>
       <c r="Q23">
@@ -1191,16 +1181,16 @@
       <c r="C24">
         <v>12</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="5" t="s">
         <v>66</v>
       </c>
       <c r="Q24">
@@ -1211,16 +1201,16 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="P25" s="5" t="s">
         <v>67</v>
       </c>
       <c r="Q25">
@@ -1231,16 +1221,16 @@
       <c r="C26">
         <v>13</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="P26" s="5" t="s">
         <v>68</v>
       </c>
       <c r="Q26">
@@ -1251,16 +1241,16 @@
       <c r="C27">
         <v>6</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="O27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="P27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="Q27">
@@ -1271,16 +1261,16 @@
       <c r="C28">
         <v>11</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="N28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="P28" s="5" t="s">
         <v>72</v>
       </c>
       <c r="Q28">
@@ -1291,16 +1281,16 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O29" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="P29" s="5" t="s">
         <v>75</v>
       </c>
       <c r="Q29">
@@ -1311,16 +1301,16 @@
       <c r="C30">
         <v>14</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="P30" s="5" t="s">
         <v>69</v>
       </c>
       <c r="Q30">
@@ -1331,16 +1321,16 @@
       <c r="C31">
         <v>7</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="6" t="s">
+      <c r="O31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="P31" s="6" t="s">
+      <c r="P31" s="5" t="s">
         <v>70</v>
       </c>
       <c r="Q31">
@@ -1351,16 +1341,16 @@
       <c r="C32">
         <v>10</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="N32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="P32" s="6" t="s">
+      <c r="P32" s="5" t="s">
         <v>71</v>
       </c>
       <c r="Q32">
@@ -1371,16 +1361,16 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="O33" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="P33" s="5" t="s">
         <v>73</v>
       </c>
       <c r="Q33">
@@ -1391,10 +1381,10 @@
       <c r="C34">
         <v>15</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P34" s="6" t="s">
+      <c r="P34" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Q34">
